--- a/Ideas for Train Records.xlsx
+++ b/Ideas for Train Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sue\Bootcamp\HOMEWORK\TrainTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{CA9C1874-36EC-4435-8D19-8F0F7B99FFB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC9F0A-C057-4572-9C7B-C0B8A27B9FBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" activeTab="1" xr2:uid="{738AACB2-88CD-40B4-9338-EF1D7D7A14E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{738AACB2-88CD-40B4-9338-EF1D7D7A14E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,64 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
-  <si>
-    <t>Pelican Beach Main Line</t>
-  </si>
-  <si>
-    <t>Iron Lake Main Line</t>
-  </si>
-  <si>
-    <t>Great Central Tracks</t>
-  </si>
-  <si>
-    <t>Dragonfly Tracks</t>
-  </si>
-  <si>
-    <t>Wester Bog Tracks</t>
-  </si>
-  <si>
-    <t>South Central Main Line</t>
-  </si>
-  <si>
-    <t>Jade Gardens Main Line</t>
-  </si>
-  <si>
-    <t>Southside Loop Line</t>
-  </si>
-  <si>
-    <t>Little Valley Route</t>
-  </si>
-  <si>
-    <t>Little Valley Line</t>
-  </si>
-  <si>
-    <t>Savannah Train Line</t>
-  </si>
-  <si>
-    <t>Sleeping Mountain Rail Line</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>White Tundra Tracks</t>
   </si>
   <si>
-    <t>Southside Line</t>
-  </si>
-  <si>
-    <t>Kings Harbor Tracks</t>
-  </si>
-  <si>
-    <t>Precious Wilds Line</t>
-  </si>
-  <si>
-    <t>Gentle Coast Speed Line</t>
-  </si>
-  <si>
     <t>Twin Mountain Loop Line</t>
   </si>
   <si>
@@ -221,57 +178,6 @@
   </si>
   <si>
     <t>Destination</t>
-  </si>
-  <si>
-    <t>East Cus </t>
-  </si>
-  <si>
-    <t>Lower Spralt </t>
-  </si>
-  <si>
-    <t>Fort Meabrul </t>
-  </si>
-  <si>
-    <t>Swallos South</t>
-  </si>
-  <si>
-    <t>Fliammum Side</t>
-  </si>
-  <si>
-    <t>Fort Cahealp </t>
-  </si>
-  <si>
-    <t>North Daifis </t>
-  </si>
-  <si>
-    <t>Rutoald Valley</t>
-  </si>
-  <si>
-    <t>Sneppechioft Wood</t>
-  </si>
-  <si>
-    <t>Xeadasul District</t>
-  </si>
-  <si>
-    <t>Upper East Geg </t>
-  </si>
-  <si>
-    <t>Swairk Garden</t>
-  </si>
-  <si>
-    <t>Rahet Side</t>
-  </si>
-  <si>
-    <t>Trerthad Park</t>
-  </si>
-  <si>
-    <t>Upper West Veommad </t>
-  </si>
-  <si>
-    <t>Bayside Peppusp </t>
-  </si>
-  <si>
-    <t>Lower South Daifod </t>
   </si>
   <si>
     <t>West Fruppeos </t>
@@ -808,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321CBF8-64D4-4AC8-AA4C-395E4D41621A}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,1059 +731,787 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(8,(60*24))</f>
-        <v>186</v>
+        <f t="shared" ref="C2:C49" ca="1" si="0">RANDBETWEEN(8,(60*24))</f>
+        <v>385</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">NOW()+(C2*1000)</f>
-        <v>229366.70790127316</v>
+        <f t="shared" ref="D2:D49" ca="1" si="1">NOW()-C2</f>
+        <v>42986.753675694446</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(8,(60*24))</f>
-        <v>635</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">NOW()+(C3*1000)</f>
-        <v>678366.70790127316</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43302.753675694446</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>1264</v>
+        <v>534</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D3:D66" ca="1" si="1">NOW()-C4</f>
-        <v>42102.707901273148</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42837.753675694446</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1150</v>
+        <v>1384</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42216.707901273148</v>
+        <v>41987.753675694446</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>643</v>
+        <v>830</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42723.707901273148</v>
+        <v>42541.753675694446</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>1013</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43118.707901273148</v>
+        <v>42358.753675694446</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>434</v>
+        <v>968</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42932.707901273148</v>
+        <v>42403.753675694446</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>569</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43193.707901273148</v>
+        <v>42802.753675694446</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>667</v>
+        <v>1284</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42699.707901273148</v>
+        <v>42087.753675694446</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1218</v>
+        <v>327</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42148.707901273148</v>
+        <v>43044.753675694446</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>692</v>
+        <v>1254</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42674.707901273148</v>
+        <v>42117.753675694446</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>846</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42927.707901273148</v>
+        <v>42525.753675694446</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>986</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42380.707901273148</v>
+        <v>43351.753675694446</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>1435</v>
+        <v>1395</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41931.707901273148</v>
+        <v>41976.753675694446</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>993</v>
+        <v>506</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42373.707901273148</v>
+        <v>42865.753675694446</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>604</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43120.707901273148</v>
+        <v>42767.753675694446</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43104.707901273148</v>
+        <v>43095.753675694446</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42461.707901273148</v>
+        <v>43277.753675694446</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42515.707901273148</v>
+        <v>43318.753675694446</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>637</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42729.707901273148</v>
+        <v>43303.753675694446</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>698</v>
+        <v>1303</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42668.707901273148</v>
+        <v>42068.753675694446</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>608</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43026.707901273148</v>
+        <v>42763.753675694446</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>1221</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43282.707901273148</v>
+        <v>42150.753675694446</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>678</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42688.707901273148</v>
+        <v>43125.753675694446</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42583.707901273148</v>
+        <v>42620.753675694446</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>1110</v>
+        <v>735</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42256.707901273148</v>
+        <v>42636.753675694446</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>426</v>
+        <v>1265</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42940.707901273148</v>
+        <v>42106.753675694446</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43005.707901273148</v>
+        <v>42960.753675694446</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>541</v>
+        <v>437</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42825.707901273148</v>
+        <v>42934.753675694446</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>755</v>
+        <v>1058</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42611.707901273148</v>
+        <v>42313.753675694446</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>1165</v>
+        <v>950</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42201.707901273148</v>
+        <v>42421.753675694446</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>1418</v>
+        <v>684</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41948.707901273148</v>
+        <v>42687.753675694446</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>1352</v>
+        <v>976</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42014.707901273148</v>
+        <v>42395.753675694446</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>553</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43240.707901273148</v>
+        <v>42818.753675694446</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>1332</v>
+        <v>113</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42034.707901273148</v>
+        <v>43258.753675694446</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>1226</v>
+        <v>1343</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42140.707901273148</v>
+        <v>42028.753675694446</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>952</v>
+        <v>1223</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42414.707901273148</v>
+        <v>42148.753675694446</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>1037</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43055.707901273148</v>
+        <v>42334.753675694446</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>863</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43207.707901273148</v>
+        <v>42508.753675694446</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>1431</v>
+        <v>940</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41935.707901273148</v>
+        <v>42431.753675694446</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>1135</v>
+        <v>386</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42231.707901273148</v>
+        <v>42985.753675694446</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>652</v>
+        <v>1142</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42714.707901273148</v>
+        <v>42229.753675694446</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43228.707901273148</v>
+        <v>42860.753675694446</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42894.707901273148</v>
+        <v>43352.753675694446</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>826</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43142.707901273148</v>
+        <v>42545.753675694446</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>1090</v>
+        <v>910</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42276.707901273148</v>
+        <v>42461.753675694446</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>581</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43349.707901273148</v>
+        <v>42790.753675694446</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>1321</v>
+        <v>716</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42045.707901273148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>998</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42368.707901273148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>346</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>43020.707901273148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="0"/>
-        <v>852</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42514.707901273148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42616.707901273148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>1343</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42023.707901273148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>777</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42589.707901273148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>813</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42553.707901273148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>1174</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42192.707901273148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>43138.707901273148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>1173</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42193.707901273148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="0"/>
-        <v>1064</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42302.707901273148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>667</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42699.707901273148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>1396</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41970.707901273148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ca="1" si="0"/>
-        <v>1402</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41964.707901273148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>43173.707901273148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>812</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42554.707901273148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="0"/>
-        <v>661</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>42705.707901273148</v>
+        <v>42655.753675694446</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED5A4F2-A3A2-4CDA-931D-6E522E08B276}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1904,7 +1538,7 @@
         <v>0.25</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1913,7 +1547,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,7 +1555,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,20 +1563,20 @@
         <v>0.875</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
